--- a/biology/Médecine/Os_hamatum/Os_hamatum.xlsx
+++ b/biology/Médecine/Os_hamatum/Os_hamatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’os hamatum (ou os crochu) est l'os le plus médial de la deuxième rangée du carpe.
 </t>
@@ -511,7 +523,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hamatum est un os irrégulier à six faces présentant une excroissance osseuse antérieure : l'hamulus de l'os hamatum.
 La face supérieure étroite, convexe et lisse s'articule avec le lunatum.
@@ -520,11 +534,6 @@
 La face antérieure présente en bas et médialement l'hamulus.
 La face latérale s'articule dans sa partie supérieure et postérieure avec le capitatum, la partie restante est rugueuse pour des attaches ligamentaires.
 La face médiale présente une surface articulaire avec le triquétrum.
-Hamulus de l'os hamatum
-L'hamulus de l'os hamatum (ou apophyse unciforme de l'os crochu) est le processus osseux en forme de crochet aplati de dehors en dedans implanté sur la face antérieure de l'hamatum[1].
-Il présente une concavité latérale formant le bord médial du canal carpien.
-Sa face médiale donne insertion aux muscles court fléchisseur et opposant du petit doigt. Il forme également le bord latéral du canal ulnaire et est en relation avec la branche profonde du nerf ulnaire.
-Il donne également insertion au ligament piso-hamatum, au rétinaculum des muscles extenseurs de la main et au muscle fléchisseur ulnaire du carpe[1].
 </t>
         </is>
       </c>
@@ -550,12 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Embryologie</t>
+          <t>Anatomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'ossification de l'hamatum débute entre 1 et 12 mois[2] et se termine vers la 15 ans[1].
+          <t>Hamulus de l'os hamatum</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hamulus de l'os hamatum (ou apophyse unciforme de l'os crochu) est le processus osseux en forme de crochet aplati de dehors en dedans implanté sur la face antérieure de l'hamatum.
+Il présente une concavité latérale formant le bord médial du canal carpien.
+Sa face médiale donne insertion aux muscles court fléchisseur et opposant du petit doigt. Il forme également le bord latéral du canal ulnaire et est en relation avec la branche profonde du nerf ulnaire.
+Il donne également insertion au ligament piso-hamatum, au rétinaculum des muscles extenseurs de la main et au muscle fléchisseur ulnaire du carpe.
 </t>
         </is>
       </c>
@@ -581,10 +599,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Embryologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ossification de l'hamatum débute entre 1 et 12 mois et se termine vers la 15 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Os_hamatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Os_hamatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La fracture de l'hamatum est souvent une fracture de golfeur lorsqu'il frappe violemment le sol avec un club de golf lors de la descente ou d'un joueur de hockey qui frappe la glace. La fracture est généralement une fracture de fatigue, souvent manquée sur les radiographies normales.
 Les symptômes sont une douleur à la préhension, une sensibilité au niveau de l'hamatum et des symptômes d'irritation du nerf ulnaire. Ceci est caractérisé par un engourdissement et une faiblesse de l'auriculaire avec une implication partielle de l'annulaire.
